--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Ifna11</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ifna11</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,19 +534,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H2">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.568057</v>
+        <v>20.79761</v>
       </c>
       <c r="N2">
-        <v>53.136114</v>
+        <v>41.59522</v>
       </c>
       <c r="O2">
-        <v>0.1769362593421452</v>
+        <v>0.1221346813081061</v>
       </c>
       <c r="P2">
-        <v>0.1285250503302229</v>
+        <v>0.08652867365760288</v>
       </c>
       <c r="Q2">
-        <v>0.254220881414</v>
+        <v>4.364472047745</v>
       </c>
       <c r="R2">
-        <v>1.525325288484</v>
+        <v>17.45788819098</v>
       </c>
       <c r="S2">
-        <v>0.1769362593421452</v>
+        <v>0.1221346813081061</v>
       </c>
       <c r="T2">
-        <v>0.1285250503302229</v>
+        <v>0.08652867365760288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,19 +596,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H3">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.56641266666667</v>
+        <v>13.56641266666666</v>
       </c>
       <c r="N3">
-        <v>40.699238</v>
+        <v>40.69923799999999</v>
       </c>
       <c r="O3">
-        <v>0.09034873381715107</v>
+        <v>0.0796692258166966</v>
       </c>
       <c r="P3">
-        <v>0.09844287093240803</v>
+        <v>0.08466480242237233</v>
       </c>
       <c r="Q3">
-        <v>0.1298124806697778</v>
+        <v>2.846972746956999</v>
       </c>
       <c r="R3">
-        <v>1.168312326028</v>
+        <v>17.081836481742</v>
       </c>
       <c r="S3">
-        <v>0.09034873381715107</v>
+        <v>0.0796692258166966</v>
       </c>
       <c r="T3">
-        <v>0.09844287093240803</v>
+        <v>0.08466480242237233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,19 +658,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H4">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.790493</v>
+        <v>49.80229833333333</v>
       </c>
       <c r="N4">
-        <v>119.371479</v>
+        <v>149.406895</v>
       </c>
       <c r="O4">
-        <v>0.2649941991919023</v>
+        <v>0.2924657129041698</v>
       </c>
       <c r="P4">
-        <v>0.2887344254506105</v>
+        <v>0.3108044736787241</v>
       </c>
       <c r="Q4">
-        <v>0.3807419640193333</v>
+        <v>10.4512364155925</v>
       </c>
       <c r="R4">
-        <v>3.426677676174</v>
+        <v>62.707418493555</v>
       </c>
       <c r="S4">
-        <v>0.2649941991919023</v>
+        <v>0.2924657129041698</v>
       </c>
       <c r="T4">
-        <v>0.2887344254506105</v>
+        <v>0.3108044736787241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,19 +720,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H5">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.470196</v>
+        <v>9.34483</v>
       </c>
       <c r="N5">
-        <v>20.940392</v>
+        <v>18.68966</v>
       </c>
       <c r="O5">
-        <v>0.06972874662302521</v>
+        <v>0.05487783615177078</v>
       </c>
       <c r="P5">
-        <v>0.05065039072549785</v>
+        <v>0.03887926283143963</v>
       </c>
       <c r="Q5">
-        <v>0.1001858154586667</v>
+        <v>1.961054627235</v>
       </c>
       <c r="R5">
-        <v>0.6011148927519999</v>
+        <v>7.84421850894</v>
       </c>
       <c r="S5">
-        <v>0.06972874662302521</v>
+        <v>0.05487783615177078</v>
       </c>
       <c r="T5">
-        <v>0.05065039072549785</v>
+        <v>0.03887926283143963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,19 +782,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H6">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.009171</v>
+        <v>37.76134866666666</v>
       </c>
       <c r="N6">
-        <v>54.02751300000001</v>
+        <v>113.284046</v>
       </c>
       <c r="O6">
-        <v>0.1199363337180826</v>
+        <v>0.2217548211149075</v>
       </c>
       <c r="P6">
-        <v>0.1306811564643544</v>
+        <v>0.2356597283761661</v>
       </c>
       <c r="Q6">
-        <v>0.172323754242</v>
+        <v>7.924388943768999</v>
       </c>
       <c r="R6">
-        <v>1.550913788178</v>
+        <v>47.546333662614</v>
       </c>
       <c r="S6">
-        <v>0.1199363337180826</v>
+        <v>0.2217548211149075</v>
       </c>
       <c r="T6">
-        <v>0.1306811564643544</v>
+        <v>0.2356597283761661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H7">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.75176099999999</v>
+        <v>39.011729</v>
       </c>
       <c r="N7">
-        <v>125.255283</v>
+        <v>117.035187</v>
       </c>
       <c r="O7">
-        <v>0.2780557273076937</v>
+        <v>0.2290977227043493</v>
       </c>
       <c r="P7">
-        <v>0.3029661060969063</v>
+        <v>0.2434630590336949</v>
       </c>
       <c r="Q7">
-        <v>0.3995086837553333</v>
+        <v>8.1867868834305</v>
       </c>
       <c r="R7">
-        <v>3.595578153798</v>
+        <v>49.120721300583</v>
       </c>
       <c r="S7">
-        <v>0.2780557273076937</v>
+        <v>0.2290977227043493</v>
       </c>
       <c r="T7">
-        <v>0.3029661060969063</v>
+        <v>0.2434630590336949</v>
       </c>
     </row>
   </sheetData>
